--- a/Trabalho 3 - Pthreads/1 - Teste/with_transpose_otimized.xlsx
+++ b/Trabalho 3 - Pthreads/1 - Teste/with_transpose_otimized.xlsx
@@ -167,7 +167,7 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -229,51 +229,51 @@
         <v>1440</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>13.482</v>
+        <v>13.4666666666667</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>3.4824947667</v>
+        <v>3.478168710375</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>1.981048815</v>
+        <v>1.824610379</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>0.9534500734</v>
+        <v>0.9530780955</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>0.5165699338</v>
+        <v>0.51766344425</v>
       </c>
       <c r="G2" s="1" t="n">
         <f aca="false">B2 / C2</f>
-        <v>3.87136260157987</v>
+        <v>3.87176925216338</v>
       </c>
       <c r="H2" s="1" t="n">
         <f aca="false">B2 / D2</f>
-        <v>6.80548601221621</v>
+        <v>7.38057111899541</v>
       </c>
       <c r="I2" s="1" t="n">
         <f aca="false">B2 / E2</f>
-        <v>14.1402265059598</v>
+        <v>14.1296570871266</v>
       </c>
       <c r="J2" s="1" t="n">
         <f aca="false">B2 / F2</f>
-        <v>26.0990799461043</v>
+        <v>26.0143280663316</v>
       </c>
       <c r="K2" s="1" t="n">
         <f aca="false">G2 / C1</f>
-        <v>0.967840650394968</v>
+        <v>0.967942313040844</v>
       </c>
       <c r="L2" s="1" t="n">
         <f aca="false">H2 / D1</f>
-        <v>0.850685751527026</v>
+        <v>0.922571389874426</v>
       </c>
       <c r="M2" s="1" t="n">
         <f aca="false">I2 / E1</f>
-        <v>0.883764156622487</v>
+        <v>0.883103567945411</v>
       </c>
       <c r="N2" s="1" t="n">
         <f aca="false">J2 / F1</f>
-        <v>0.815596248315759</v>
+        <v>0.812947752072863</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -281,51 +281,51 @@
         <v>1600</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>18.487</v>
+        <v>18.48</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>4.756808944</v>
+        <v>4.749839510125</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>2.7689712202</v>
+        <v>2.708025121625</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>1.2905208901</v>
+        <v>1.289244847625</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>0.6973601458</v>
+        <v>0.69851754275</v>
       </c>
       <c r="G3" s="1" t="n">
         <f aca="false">B3 / C3</f>
-        <v>3.88642895219043</v>
+        <v>3.89065777077459</v>
       </c>
       <c r="H3" s="1" t="n">
         <f aca="false">B3 / D3</f>
-        <v>6.6764868717793</v>
+        <v>6.82416121343466</v>
       </c>
       <c r="I3" s="1" t="n">
         <f aca="false">B3 / E3</f>
-        <v>14.3252233588931</v>
+        <v>14.3339723513677</v>
       </c>
       <c r="J3" s="1" t="n">
         <f aca="false">B3 / F3</f>
-        <v>26.5099749553253</v>
+        <v>26.4560284731661</v>
       </c>
       <c r="K3" s="1" t="n">
         <f aca="false">G3 / C1</f>
-        <v>0.971607238047608</v>
+        <v>0.972664442693647</v>
       </c>
       <c r="L3" s="1" t="n">
         <f aca="false">H3 / D1</f>
-        <v>0.834560858972412</v>
+        <v>0.853020151679332</v>
       </c>
       <c r="M3" s="1" t="n">
         <f aca="false">I3 / E1</f>
-        <v>0.895326459930817</v>
+        <v>0.895873271960481</v>
       </c>
       <c r="N3" s="1" t="n">
         <f aca="false">J3 / F1</f>
-        <v>0.828436717353915</v>
+        <v>0.82675088978644</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -333,51 +333,51 @@
         <v>1760</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>24.597</v>
+        <v>24.595</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>6.2936613734</v>
+        <v>6.288746469625</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>3.4496168843</v>
+        <v>3.497622134875</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>1.709885173</v>
+        <v>1.709414416</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>0.9149057432</v>
+        <v>0.9167514195</v>
       </c>
       <c r="G4" s="1" t="n">
         <f aca="false">B4 / C4</f>
-        <v>3.90821789427035</v>
+        <v>3.91095429252797</v>
       </c>
       <c r="H4" s="1" t="n">
         <f aca="false">B4 / D4</f>
-        <v>7.13035702948539</v>
+        <v>7.03192027370875</v>
       </c>
       <c r="I4" s="1" t="n">
         <f aca="false">B4 / E4</f>
-        <v>14.3851764951236</v>
+        <v>14.3879680490538</v>
       </c>
       <c r="J4" s="1" t="n">
         <f aca="false">B4 / F4</f>
-        <v>26.8847366877039</v>
+        <v>26.8284285978136</v>
       </c>
       <c r="K4" s="1" t="n">
         <f aca="false">G4 / C1</f>
-        <v>0.977054473567588</v>
+        <v>0.977738573131992</v>
       </c>
       <c r="L4" s="1" t="n">
         <f aca="false">H4 / D1</f>
-        <v>0.891294628685674</v>
+        <v>0.878990034213594</v>
       </c>
       <c r="M4" s="1" t="n">
         <f aca="false">I4 / E1</f>
-        <v>0.899073530945227</v>
+        <v>0.899248003065864</v>
       </c>
       <c r="N4" s="1" t="n">
         <f aca="false">J4 / F1</f>
-        <v>0.840148021490745</v>
+        <v>0.838388393681675</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -385,51 +385,51 @@
         <v>1920</v>
       </c>
       <c r="B5" s="1" t="n">
-        <v>32.002</v>
+        <v>31.9683333333333</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>8.1692168648</v>
+        <v>8.154491177125</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>4.2677958438</v>
+        <v>4.2875921735</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>2.1874067078</v>
+        <v>2.188687521875</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>1.171775593</v>
+        <v>1.173331621875</v>
       </c>
       <c r="G5" s="1" t="n">
         <f aca="false">B5 / C5</f>
-        <v>3.91738896513962</v>
+        <v>3.92033452964067</v>
       </c>
       <c r="H5" s="1" t="n">
         <f aca="false">B5 / D5</f>
-        <v>7.49848426945975</v>
+        <v>7.45601074909074</v>
       </c>
       <c r="I5" s="1" t="n">
         <f aca="false">B5 / E5</f>
-        <v>14.630109657196</v>
+        <v>14.6061660304742</v>
       </c>
       <c r="J5" s="1" t="n">
         <f aca="false">B5 / F5</f>
-        <v>27.3106900256114</v>
+        <v>27.2457783778532</v>
       </c>
       <c r="K5" s="1" t="n">
         <f aca="false">G5 / C1</f>
-        <v>0.979347241284905</v>
+        <v>0.980083632410168</v>
       </c>
       <c r="L5" s="1" t="n">
         <f aca="false">H5 / D1</f>
-        <v>0.937310533682469</v>
+        <v>0.932001343636343</v>
       </c>
       <c r="M5" s="1" t="n">
         <f aca="false">I5 / E1</f>
-        <v>0.914381853574747</v>
+        <v>0.912885376904636</v>
       </c>
       <c r="N5" s="1" t="n">
         <f aca="false">J5 / F1</f>
-        <v>0.853459063300357</v>
+        <v>0.851430574307913</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -437,51 +437,51 @@
         <v>2080</v>
       </c>
       <c r="B6" s="1" t="n">
-        <v>40.724</v>
+        <v>40.7216666666667</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>10.3771782584</v>
+        <v>10.356814923</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>5.2959026279</v>
+        <v>5.29576798375</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>2.760474175</v>
+        <v>2.76289596175</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>1.4761589077</v>
+        <v>1.48097507325</v>
       </c>
       <c r="G6" s="1" t="n">
         <f aca="false">B6 / C6</f>
-        <v>3.92438088524067</v>
+        <v>3.93187161974225</v>
       </c>
       <c r="H6" s="1" t="n">
         <f aca="false">B6 / D6</f>
-        <v>7.68971842221132</v>
+        <v>7.68947332882041</v>
       </c>
       <c r="I6" s="1" t="n">
         <f aca="false">B6 / E6</f>
-        <v>14.7525379403341</v>
+        <v>14.7387622373134</v>
       </c>
       <c r="J6" s="1" t="n">
         <f aca="false">B6 / F6</f>
-        <v>27.5878157748287</v>
+        <v>27.4965240146162</v>
       </c>
       <c r="K6" s="1" t="n">
         <f aca="false">G6 / C1</f>
-        <v>0.981095221310167</v>
+        <v>0.982967904935561</v>
       </c>
       <c r="L6" s="1" t="n">
         <f aca="false">H6 / D1</f>
-        <v>0.961214802776416</v>
+        <v>0.961184166102552</v>
       </c>
       <c r="M6" s="1" t="n">
         <f aca="false">I6 / E1</f>
-        <v>0.922033621270882</v>
+        <v>0.921172639832089</v>
       </c>
       <c r="N6" s="1" t="n">
         <f aca="false">J6 / F1</f>
-        <v>0.862119242963398</v>
+        <v>0.859266375456757</v>
       </c>
     </row>
   </sheetData>
